--- a/App_Templates/DelayReport_Template.xlsx
+++ b/App_Templates/DelayReport_Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Region</t>
   </si>
@@ -80,16 +80,43 @@
     <t>Request Date</t>
   </si>
   <si>
-    <t>Insp StartDate</t>
-  </si>
-  <si>
-    <t>Insp End date</t>
-  </si>
-  <si>
     <t>DELAY</t>
   </si>
   <si>
     <t>Paused</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>Received By</t>
+  </si>
+  <si>
+    <t>Received On</t>
+  </si>
+  <si>
+    <t>Attended Dt</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>Alloted By</t>
+  </si>
+  <si>
+    <t>Alloted On</t>
+  </si>
+  <si>
+    <t>Alloted To</t>
+  </si>
+  <si>
+    <t>Inspection StartDate</t>
   </si>
 </sst>
 </file>
@@ -165,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -257,11 +284,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,10 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,6 +365,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,20 +674,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K24"/>
+  <dimension ref="A3:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="14" customWidth="1"/>
     <col min="3" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6"/>
@@ -665,7 +726,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -677,7 +738,7 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -689,7 +750,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -701,7 +762,7 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -713,7 +774,7 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -725,7 +786,7 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -737,7 +798,7 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -749,7 +810,7 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -761,7 +822,7 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -773,7 +834,7 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -785,7 +846,7 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -797,7 +858,7 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -808,8 +869,8 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -820,7 +881,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
@@ -861,8 +922,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -873,36 +934,63 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="L24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="O24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
